--- a/Data/EC/NIT-9015930715.xlsx
+++ b/Data/EC/NIT-9015930715.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D54C29D9-2215-480A-9D34-8247EC4D9B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CE77988-DC7F-41A2-A7BF-7C4AFEBF0A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5B316958-B4D7-448A-B389-93C911E94BA8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7B6CCD55-1544-4FE6-BFEF-37D869F518BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,85 +65,85 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1128048569</t>
+  </si>
+  <si>
+    <t>KELLY JOHANNA INFANTE GUZMAN</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>33221631</t>
+  </si>
+  <si>
+    <t>NEYLA ESTHER GUTIERREZ TOSCANO</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>9297191</t>
+  </si>
+  <si>
+    <t>MANUEL DEL CRISTO PAJARO LLERENA</t>
+  </si>
+  <si>
+    <t>9158605</t>
+  </si>
+  <si>
+    <t>ROBINSON ENRIQUE RIBERO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1066718197</t>
+  </si>
+  <si>
+    <t>JORGE EMILIO PRADO JARAMILLO</t>
+  </si>
+  <si>
+    <t>1073994971</t>
+  </si>
+  <si>
+    <t>VICENTE MANUEL LOZANO FAJARDO</t>
+  </si>
+  <si>
+    <t>1104869717</t>
+  </si>
+  <si>
+    <t>NESTOR ADOLFO SANTOS CASTILLO</t>
+  </si>
+  <si>
+    <t>11063562</t>
+  </si>
+  <si>
+    <t>SONY RAFAEL RIVERO CORDERO</t>
+  </si>
+  <si>
+    <t>92261028</t>
+  </si>
+  <si>
+    <t>MARIO NEL SANTOS CASTILLO</t>
+  </si>
+  <si>
     <t>1104469717</t>
-  </si>
-  <si>
-    <t>NESTOR ADOLFO SANTOS CASTILLO</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>9158605</t>
-  </si>
-  <si>
-    <t>ROBINSON ENRIQUE RIBERO HERNANDEZ</t>
-  </si>
-  <si>
-    <t>33221631</t>
-  </si>
-  <si>
-    <t>NEYLA ESTHER GUTIERREZ TOSCANO</t>
-  </si>
-  <si>
-    <t>92261028</t>
-  </si>
-  <si>
-    <t>MARIO NEL SANTOS CASTILLO</t>
-  </si>
-  <si>
-    <t>1073994971</t>
-  </si>
-  <si>
-    <t>VICENTE MANUEL LOZANO FAJARDO</t>
-  </si>
-  <si>
-    <t>9297191</t>
-  </si>
-  <si>
-    <t>MANUEL DEL CRISTO PAJARO LLERENA</t>
-  </si>
-  <si>
-    <t>11063562</t>
-  </si>
-  <si>
-    <t>SONY RAFAEL RIVERO CORDERO</t>
-  </si>
-  <si>
-    <t>1066718197</t>
-  </si>
-  <si>
-    <t>JORGE EMILIO PRADO JARAMILLO</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>1128048569</t>
-  </si>
-  <si>
-    <t>KELLY JOHANNA INFANTE GUZMAN</t>
-  </si>
-  <si>
-    <t>1104869717</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -557,7 +557,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{684EBFA4-53C7-6E37-CCCB-709FA2ABB264}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D1BDBFF-552A-3A92-D81C-6AD2F899CD7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -908,7 +908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3295DE47-01BF-4480-B6CE-6887F1CE18CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3768C90D-71D7-4E9B-BF8E-AB8903F5CF31}">
   <dimension ref="B2:J92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1086,10 +1086,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31894</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
-        <v>1040000</v>
+        <v>1200000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1100,19 +1100,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>30666</v>
+        <v>48000</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1123,19 +1123,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>35758</v>
+        <v>48000</v>
       </c>
       <c r="G18" s="18">
-        <v>1166000</v>
+        <v>1200000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1146,19 +1146,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>30666</v>
+        <v>48000</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1169,19 +1169,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>30666</v>
+        <v>48000</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1192,19 +1192,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>37106</v>
+        <v>48000</v>
       </c>
       <c r="G21" s="18">
-        <v>1210000</v>
+        <v>1200000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1215,19 +1215,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>37106</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>1210000</v>
+        <v>1200000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1238,19 +1238,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>37106</v>
+        <v>38867</v>
       </c>
       <c r="G23" s="18">
-        <v>1210000</v>
+        <v>1166000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1261,19 +1261,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>46640</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>1166000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1284,19 +1284,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F25" s="18">
-        <v>40000</v>
+        <v>46640</v>
       </c>
       <c r="G25" s="18">
-        <v>1000000</v>
+        <v>1166000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1307,19 +1307,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
-        <v>41600</v>
+        <v>46640</v>
       </c>
       <c r="G26" s="18">
-        <v>1040000</v>
+        <v>1166000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1330,19 +1330,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
-        <v>40000</v>
+        <v>46640</v>
       </c>
       <c r="G27" s="18">
-        <v>1200000</v>
+        <v>1166000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1353,19 +1353,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
-        <v>48400</v>
+        <v>46640</v>
       </c>
       <c r="G28" s="18">
-        <v>1210000</v>
+        <v>1166000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1376,19 +1376,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F29" s="18">
-        <v>48400</v>
+        <v>46640</v>
       </c>
       <c r="G29" s="18">
-        <v>1210000</v>
+        <v>1166000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1399,19 +1399,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>42400</v>
+        <v>35758</v>
       </c>
       <c r="G30" s="18">
-        <v>1060000</v>
+        <v>1166000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1422,19 +1422,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F31" s="18">
-        <v>46640</v>
+        <v>40333</v>
       </c>
       <c r="G31" s="18">
-        <v>1166000</v>
+        <v>1210000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1445,19 +1445,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F32" s="18">
-        <v>40000</v>
+        <v>48400</v>
       </c>
       <c r="G32" s="18">
-        <v>1000000</v>
+        <v>1210000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1468,19 +1468,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F33" s="18">
-        <v>40000</v>
+        <v>48400</v>
       </c>
       <c r="G33" s="18">
-        <v>1000000</v>
+        <v>1210000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1491,13 +1491,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F34" s="18">
         <v>48400</v>
@@ -1514,19 +1514,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F35" s="18">
-        <v>48000</v>
+        <v>48400</v>
       </c>
       <c r="G35" s="18">
-        <v>1200000</v>
+        <v>1210000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1537,19 +1537,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F36" s="18">
-        <v>46640</v>
+        <v>48400</v>
       </c>
       <c r="G36" s="18">
-        <v>1166000</v>
+        <v>1210000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1560,19 +1560,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F37" s="18">
-        <v>42400</v>
+        <v>48400</v>
       </c>
       <c r="G37" s="18">
-        <v>1060000</v>
+        <v>1210000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1583,16 +1583,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F38" s="18">
-        <v>48400</v>
+        <v>37106</v>
       </c>
       <c r="G38" s="18">
         <v>1210000</v>
@@ -1606,19 +1606,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F39" s="18">
-        <v>41600</v>
+        <v>33333</v>
       </c>
       <c r="G39" s="18">
-        <v>1040000</v>
+        <v>1000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1629,13 +1629,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
@@ -1652,13 +1652,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F41" s="18">
         <v>40000</v>
@@ -1675,19 +1675,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F42" s="18">
-        <v>46640</v>
+        <v>40000</v>
       </c>
       <c r="G42" s="18">
-        <v>1166000</v>
+        <v>1000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1698,19 +1698,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F43" s="18">
-        <v>42400</v>
+        <v>40000</v>
       </c>
       <c r="G43" s="18">
-        <v>1060000</v>
+        <v>1000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1721,19 +1721,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F44" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G44" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1744,13 +1744,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F45" s="18">
         <v>40000</v>
@@ -1767,19 +1767,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F46" s="18">
-        <v>41600</v>
+        <v>30666</v>
       </c>
       <c r="G46" s="18">
-        <v>1040000</v>
+        <v>1000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1790,19 +1790,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F47" s="18">
-        <v>40000</v>
+        <v>40333</v>
       </c>
       <c r="G47" s="18">
-        <v>1000000</v>
+        <v>1210000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1813,13 +1813,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F48" s="18">
         <v>48400</v>
@@ -1836,13 +1836,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F49" s="18">
         <v>48400</v>
@@ -1859,19 +1859,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F50" s="18">
-        <v>40000</v>
+        <v>48400</v>
       </c>
       <c r="G50" s="18">
-        <v>1000000</v>
+        <v>1210000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1882,19 +1882,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F51" s="18">
-        <v>42400</v>
+        <v>48400</v>
       </c>
       <c r="G51" s="18">
-        <v>1060000</v>
+        <v>1210000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1905,13 +1905,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F52" s="18">
         <v>48400</v>
@@ -1928,19 +1928,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F53" s="18">
-        <v>48000</v>
+        <v>48400</v>
       </c>
       <c r="G53" s="18">
-        <v>1200000</v>
+        <v>1210000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -1951,19 +1951,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F54" s="18">
-        <v>40000</v>
+        <v>37106</v>
       </c>
       <c r="G54" s="18">
-        <v>1000000</v>
+        <v>1210000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -1974,19 +1974,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F55" s="18">
-        <v>48400</v>
+        <v>33333</v>
       </c>
       <c r="G55" s="18">
-        <v>1210000</v>
+        <v>1000000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -1997,13 +1997,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F56" s="18">
         <v>40000</v>
@@ -2020,19 +2020,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F57" s="18">
-        <v>46640</v>
+        <v>40000</v>
       </c>
       <c r="G57" s="18">
-        <v>1166000</v>
+        <v>1000000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2043,13 +2043,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F58" s="18">
         <v>40000</v>
@@ -2066,19 +2066,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F59" s="18">
-        <v>41600</v>
+        <v>40000</v>
       </c>
       <c r="G59" s="18">
-        <v>1040000</v>
+        <v>1000000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2089,13 +2089,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F60" s="18">
         <v>40000</v>
@@ -2118,13 +2118,13 @@
         <v>28</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F61" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G61" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2135,19 +2135,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F62" s="18">
-        <v>48400</v>
+        <v>30666</v>
       </c>
       <c r="G62" s="18">
-        <v>1210000</v>
+        <v>1000000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2158,19 +2158,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F63" s="18">
-        <v>40000</v>
+        <v>35333</v>
       </c>
       <c r="G63" s="18">
-        <v>1000000</v>
+        <v>1060000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2184,10 +2184,10 @@
         <v>29</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F64" s="18">
         <v>42400</v>
@@ -2204,19 +2204,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F65" s="18">
-        <v>46640</v>
+        <v>42400</v>
       </c>
       <c r="G65" s="18">
-        <v>1166000</v>
+        <v>1060000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2227,19 +2227,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F66" s="18">
-        <v>48400</v>
+        <v>42400</v>
       </c>
       <c r="G66" s="18">
-        <v>1210000</v>
+        <v>1060000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2250,19 +2250,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F67" s="18">
-        <v>40000</v>
+        <v>42400</v>
       </c>
       <c r="G67" s="18">
-        <v>1000000</v>
+        <v>1060000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2273,19 +2273,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F68" s="18">
-        <v>41600</v>
+        <v>42400</v>
       </c>
       <c r="G68" s="18">
-        <v>1040000</v>
+        <v>1060000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2296,19 +2296,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F69" s="18">
-        <v>41600</v>
+        <v>42400</v>
       </c>
       <c r="G69" s="18">
-        <v>1040000</v>
+        <v>1060000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2319,19 +2319,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F70" s="18">
-        <v>40000</v>
+        <v>37106</v>
       </c>
       <c r="G70" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2342,16 +2342,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F71" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G71" s="18">
         <v>1000000</v>
@@ -2365,19 +2365,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F72" s="18">
-        <v>48400</v>
+        <v>40000</v>
       </c>
       <c r="G72" s="18">
-        <v>1210000</v>
+        <v>1000000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2388,19 +2388,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F73" s="18">
-        <v>48400</v>
+        <v>40000</v>
       </c>
       <c r="G73" s="18">
-        <v>1210000</v>
+        <v>1000000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2411,19 +2411,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F74" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G74" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2434,19 +2434,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D75" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="F75" s="18">
-        <v>46640</v>
+        <v>40000</v>
       </c>
       <c r="G75" s="18">
-        <v>1166000</v>
+        <v>1000000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2457,13 +2457,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F76" s="18">
         <v>40000</v>
@@ -2480,19 +2480,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F77" s="18">
-        <v>42400</v>
+        <v>40000</v>
       </c>
       <c r="G77" s="18">
-        <v>1060000</v>
+        <v>1000000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2503,16 +2503,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F78" s="18">
-        <v>33333</v>
+        <v>30666</v>
       </c>
       <c r="G78" s="18">
         <v>1000000</v>
@@ -2526,19 +2526,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F79" s="18">
-        <v>38867</v>
+        <v>34667</v>
       </c>
       <c r="G79" s="18">
-        <v>1166000</v>
+        <v>1040000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2549,19 +2549,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F80" s="18">
-        <v>35333</v>
+        <v>41600</v>
       </c>
       <c r="G80" s="18">
-        <v>1060000</v>
+        <v>1040000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2572,19 +2572,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F81" s="18">
-        <v>40333</v>
+        <v>41600</v>
       </c>
       <c r="G81" s="18">
-        <v>1210000</v>
+        <v>1040000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2595,19 +2595,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F82" s="18">
-        <v>40333</v>
+        <v>41600</v>
       </c>
       <c r="G82" s="18">
-        <v>1210000</v>
+        <v>1040000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2618,19 +2618,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F83" s="18">
-        <v>33333</v>
+        <v>41600</v>
       </c>
       <c r="G83" s="18">
-        <v>1000000</v>
+        <v>1040000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2641,19 +2641,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F84" s="18">
-        <v>33333</v>
+        <v>41600</v>
       </c>
       <c r="G84" s="18">
-        <v>1000000</v>
+        <v>1040000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2664,16 +2664,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F85" s="18">
-        <v>34667</v>
+        <v>41600</v>
       </c>
       <c r="G85" s="18">
         <v>1040000</v>
@@ -2687,19 +2687,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F86" s="24">
-        <v>40000</v>
+        <v>31894</v>
       </c>
       <c r="G86" s="24">
-        <v>1200000</v>
+        <v>1040000</v>
       </c>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>

--- a/Data/EC/NIT-9015930715.xlsx
+++ b/Data/EC/NIT-9015930715.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CE77988-DC7F-41A2-A7BF-7C4AFEBF0A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49B684CB-C2C8-4030-A1A7-38620008A60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7B6CCD55-1544-4FE6-BFEF-37D869F518BD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{73F9E70A-AE16-4AA4-9C27-E7FAC2DC6097}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,85 +65,85 @@
     <t>CC</t>
   </si>
   <si>
+    <t>33221631</t>
+  </si>
+  <si>
+    <t>NEYLA ESTHER GUTIERREZ TOSCANO</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>9297191</t>
+  </si>
+  <si>
+    <t>MANUEL DEL CRISTO PAJARO LLERENA</t>
+  </si>
+  <si>
+    <t>9158605</t>
+  </si>
+  <si>
+    <t>ROBINSON ENRIQUE RIBERO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1066718197</t>
+  </si>
+  <si>
+    <t>JORGE EMILIO PRADO JARAMILLO</t>
+  </si>
+  <si>
+    <t>1073994971</t>
+  </si>
+  <si>
+    <t>VICENTE MANUEL LOZANO FAJARDO</t>
+  </si>
+  <si>
+    <t>11063562</t>
+  </si>
+  <si>
+    <t>SONY RAFAEL RIVERO CORDERO</t>
+  </si>
+  <si>
+    <t>92261028</t>
+  </si>
+  <si>
+    <t>MARIO NEL SANTOS CASTILLO</t>
+  </si>
+  <si>
+    <t>1104469717</t>
+  </si>
+  <si>
+    <t>NESTOR ADOLFO SANTOS CASTILLO</t>
+  </si>
+  <si>
     <t>1128048569</t>
   </si>
   <si>
     <t>KELLY JOHANNA INFANTE GUZMAN</t>
   </si>
   <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>1104869717</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
     <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>33221631</t>
-  </si>
-  <si>
-    <t>NEYLA ESTHER GUTIERREZ TOSCANO</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>9297191</t>
-  </si>
-  <si>
-    <t>MANUEL DEL CRISTO PAJARO LLERENA</t>
-  </si>
-  <si>
-    <t>9158605</t>
-  </si>
-  <si>
-    <t>ROBINSON ENRIQUE RIBERO HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1066718197</t>
-  </si>
-  <si>
-    <t>JORGE EMILIO PRADO JARAMILLO</t>
-  </si>
-  <si>
-    <t>1073994971</t>
-  </si>
-  <si>
-    <t>VICENTE MANUEL LOZANO FAJARDO</t>
-  </si>
-  <si>
-    <t>1104869717</t>
-  </si>
-  <si>
-    <t>NESTOR ADOLFO SANTOS CASTILLO</t>
-  </si>
-  <si>
-    <t>11063562</t>
-  </si>
-  <si>
-    <t>SONY RAFAEL RIVERO CORDERO</t>
-  </si>
-  <si>
-    <t>92261028</t>
-  </si>
-  <si>
-    <t>MARIO NEL SANTOS CASTILLO</t>
-  </si>
-  <si>
-    <t>1104469717</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -242,7 +242,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -255,9 +257,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -457,23 +457,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -501,10 +501,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,7 +557,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D1BDBFF-552A-3A92-D81C-6AD2F899CD7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A257855-567C-8E0C-6A49-6DE6AF55FD82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -908,7 +908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3768C90D-71D7-4E9B-BF8E-AB8903F5CF31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78FDDA7-FED4-47AA-B4DB-FF85AAFACC87}">
   <dimension ref="B2:J92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1086,10 +1086,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>35758</v>
       </c>
       <c r="G16" s="18">
-        <v>1200000</v>
+        <v>1166000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1100,19 +1100,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>48000</v>
+        <v>37106</v>
       </c>
       <c r="G17" s="18">
-        <v>1200000</v>
+        <v>1210000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1123,19 +1123,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>48000</v>
+        <v>30666</v>
       </c>
       <c r="G18" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1146,19 +1146,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>48000</v>
+        <v>37106</v>
       </c>
       <c r="G19" s="18">
-        <v>1200000</v>
+        <v>1210000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1169,19 +1169,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>48000</v>
+        <v>30666</v>
       </c>
       <c r="G20" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1192,19 +1192,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>48000</v>
+        <v>37106</v>
       </c>
       <c r="G21" s="18">
-        <v>1200000</v>
+        <v>1210000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1215,19 +1215,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>40000</v>
+        <v>30666</v>
       </c>
       <c r="G22" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1238,19 +1238,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>38867</v>
+        <v>31894</v>
       </c>
       <c r="G23" s="18">
-        <v>1166000</v>
+        <v>1040000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1261,19 +1261,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F24" s="18">
-        <v>46640</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="18">
-        <v>1166000</v>
+        <v>1200000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1284,13 +1284,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F25" s="18">
         <v>46640</v>
@@ -1307,19 +1307,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F26" s="18">
-        <v>46640</v>
+        <v>48400</v>
       </c>
       <c r="G26" s="18">
-        <v>1166000</v>
+        <v>1210000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1330,19 +1330,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F27" s="18">
-        <v>46640</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>1166000</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1353,19 +1353,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
-        <v>46640</v>
+        <v>48400</v>
       </c>
       <c r="G28" s="18">
-        <v>1166000</v>
+        <v>1210000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1382,13 +1382,13 @@
         <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
-        <v>46640</v>
+        <v>40000</v>
       </c>
       <c r="G29" s="18">
-        <v>1166000</v>
+        <v>1000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1399,19 +1399,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
-        <v>35758</v>
+        <v>42400</v>
       </c>
       <c r="G30" s="18">
-        <v>1166000</v>
+        <v>1060000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1422,19 +1422,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>40333</v>
+        <v>40000</v>
       </c>
       <c r="G31" s="18">
-        <v>1210000</v>
+        <v>1000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1445,19 +1445,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
-        <v>48400</v>
+        <v>41600</v>
       </c>
       <c r="G32" s="18">
-        <v>1210000</v>
+        <v>1040000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1468,19 +1468,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
-        <v>48400</v>
+        <v>48000</v>
       </c>
       <c r="G33" s="18">
-        <v>1210000</v>
+        <v>1200000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1491,19 +1491,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F34" s="18">
-        <v>48400</v>
+        <v>46640</v>
       </c>
       <c r="G34" s="18">
-        <v>1210000</v>
+        <v>1166000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1514,13 +1514,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>48400</v>
@@ -1537,19 +1537,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F36" s="18">
-        <v>48400</v>
+        <v>40000</v>
       </c>
       <c r="G36" s="18">
-        <v>1210000</v>
+        <v>1000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1560,13 +1560,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F37" s="18">
         <v>48400</v>
@@ -1583,19 +1583,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F38" s="18">
-        <v>37106</v>
+        <v>40000</v>
       </c>
       <c r="G38" s="18">
-        <v>1210000</v>
+        <v>1000000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1606,19 +1606,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F39" s="18">
-        <v>33333</v>
+        <v>42400</v>
       </c>
       <c r="G39" s="18">
-        <v>1000000</v>
+        <v>1060000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1629,13 +1629,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="E40" s="16" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
@@ -1652,19 +1652,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F41" s="18">
-        <v>40000</v>
+        <v>41600</v>
       </c>
       <c r="G41" s="18">
-        <v>1000000</v>
+        <v>1040000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1675,19 +1675,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F42" s="18">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="G42" s="18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1698,19 +1698,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F43" s="18">
-        <v>40000</v>
+        <v>46640</v>
       </c>
       <c r="G43" s="18">
-        <v>1000000</v>
+        <v>1166000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1721,19 +1721,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F44" s="18">
-        <v>40000</v>
+        <v>48400</v>
       </c>
       <c r="G44" s="18">
-        <v>1000000</v>
+        <v>1210000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1744,13 +1744,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F45" s="18">
         <v>40000</v>
@@ -1767,19 +1767,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F46" s="18">
-        <v>30666</v>
+        <v>48400</v>
       </c>
       <c r="G46" s="18">
-        <v>1000000</v>
+        <v>1210000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1790,19 +1790,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F47" s="18">
-        <v>40333</v>
+        <v>40000</v>
       </c>
       <c r="G47" s="18">
-        <v>1210000</v>
+        <v>1000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1813,19 +1813,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="E48" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F48" s="18">
-        <v>48400</v>
+        <v>42400</v>
       </c>
       <c r="G48" s="18">
-        <v>1210000</v>
+        <v>1060000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1836,19 +1836,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F49" s="18">
-        <v>48400</v>
+        <v>40000</v>
       </c>
       <c r="G49" s="18">
-        <v>1210000</v>
+        <v>1000000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1859,19 +1859,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="E50" s="16" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F50" s="18">
-        <v>48400</v>
+        <v>41600</v>
       </c>
       <c r="G50" s="18">
-        <v>1210000</v>
+        <v>1040000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1882,19 +1882,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F51" s="18">
-        <v>48400</v>
+        <v>48000</v>
       </c>
       <c r="G51" s="18">
-        <v>1210000</v>
+        <v>1200000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1905,19 +1905,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F52" s="18">
-        <v>48400</v>
+        <v>46640</v>
       </c>
       <c r="G52" s="18">
-        <v>1210000</v>
+        <v>1166000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1928,13 +1928,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F53" s="18">
         <v>48400</v>
@@ -1951,19 +1951,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
-        <v>37106</v>
+        <v>40000</v>
       </c>
       <c r="G54" s="18">
-        <v>1210000</v>
+        <v>1000000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -1974,19 +1974,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
-        <v>33333</v>
+        <v>48400</v>
       </c>
       <c r="G55" s="18">
-        <v>1000000</v>
+        <v>1210000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -1997,13 +1997,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F56" s="18">
         <v>40000</v>
@@ -2020,19 +2020,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F57" s="18">
-        <v>40000</v>
+        <v>42400</v>
       </c>
       <c r="G57" s="18">
-        <v>1000000</v>
+        <v>1060000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2043,13 +2043,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F58" s="18">
         <v>40000</v>
@@ -2066,19 +2066,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F59" s="18">
-        <v>40000</v>
+        <v>41600</v>
       </c>
       <c r="G59" s="18">
-        <v>1000000</v>
+        <v>1040000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2089,19 +2089,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="E60" s="16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F60" s="18">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="G60" s="18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2112,19 +2112,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F61" s="18">
-        <v>40000</v>
+        <v>46640</v>
       </c>
       <c r="G61" s="18">
-        <v>1000000</v>
+        <v>1166000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2135,19 +2135,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F62" s="18">
-        <v>30666</v>
+        <v>48400</v>
       </c>
       <c r="G62" s="18">
-        <v>1000000</v>
+        <v>1210000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2158,19 +2158,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F63" s="18">
-        <v>35333</v>
+        <v>40000</v>
       </c>
       <c r="G63" s="18">
-        <v>1060000</v>
+        <v>1000000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2181,19 +2181,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F64" s="18">
-        <v>42400</v>
+        <v>48400</v>
       </c>
       <c r="G64" s="18">
-        <v>1060000</v>
+        <v>1210000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2204,19 +2204,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F65" s="18">
-        <v>42400</v>
+        <v>40000</v>
       </c>
       <c r="G65" s="18">
-        <v>1060000</v>
+        <v>1000000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2230,10 +2230,10 @@
         <v>29</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F66" s="18">
         <v>42400</v>
@@ -2250,19 +2250,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F67" s="18">
-        <v>42400</v>
+        <v>40000</v>
       </c>
       <c r="G67" s="18">
-        <v>1060000</v>
+        <v>1000000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2273,19 +2273,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F68" s="18">
-        <v>42400</v>
+        <v>41600</v>
       </c>
       <c r="G68" s="18">
-        <v>1060000</v>
+        <v>1040000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2296,19 +2296,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F69" s="18">
-        <v>42400</v>
+        <v>48000</v>
       </c>
       <c r="G69" s="18">
-        <v>1060000</v>
+        <v>1200000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2319,19 +2319,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F70" s="18">
-        <v>37106</v>
+        <v>46640</v>
       </c>
       <c r="G70" s="18">
-        <v>1160000</v>
+        <v>1166000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2342,19 +2342,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E71" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F71" s="18">
-        <v>33333</v>
+        <v>48400</v>
       </c>
       <c r="G71" s="18">
-        <v>1000000</v>
+        <v>1210000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2365,13 +2365,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D72" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F72" s="18">
         <v>40000</v>
@@ -2388,19 +2388,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D73" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E73" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F73" s="18">
-        <v>40000</v>
+        <v>48400</v>
       </c>
       <c r="G73" s="18">
-        <v>1000000</v>
+        <v>1210000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2411,13 +2411,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D74" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F74" s="18">
         <v>40000</v>
@@ -2434,19 +2434,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D75" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F75" s="18">
-        <v>40000</v>
+        <v>42400</v>
       </c>
       <c r="G75" s="18">
-        <v>1000000</v>
+        <v>1060000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2457,13 +2457,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D76" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F76" s="18">
         <v>40000</v>
@@ -2480,19 +2480,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D77" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F77" s="18">
-        <v>40000</v>
+        <v>41600</v>
       </c>
       <c r="G77" s="18">
-        <v>1000000</v>
+        <v>1040000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2503,19 +2503,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F78" s="18">
-        <v>30666</v>
+        <v>40000</v>
       </c>
       <c r="G78" s="18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2526,19 +2526,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D79" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F79" s="18">
-        <v>34667</v>
+        <v>38867</v>
       </c>
       <c r="G79" s="18">
-        <v>1040000</v>
+        <v>1166000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2549,19 +2549,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D80" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F80" s="18">
-        <v>41600</v>
+        <v>40333</v>
       </c>
       <c r="G80" s="18">
-        <v>1040000</v>
+        <v>1210000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2572,19 +2572,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D81" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F81" s="18">
-        <v>41600</v>
+        <v>33333</v>
       </c>
       <c r="G81" s="18">
-        <v>1040000</v>
+        <v>1000000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2595,19 +2595,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D82" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F82" s="18">
-        <v>41600</v>
+        <v>40333</v>
       </c>
       <c r="G82" s="18">
-        <v>1040000</v>
+        <v>1210000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2618,19 +2618,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D83" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F83" s="18">
-        <v>41600</v>
+        <v>33333</v>
       </c>
       <c r="G83" s="18">
-        <v>1040000</v>
+        <v>1000000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2641,19 +2641,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D84" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F84" s="18">
-        <v>41600</v>
+        <v>35333</v>
       </c>
       <c r="G84" s="18">
-        <v>1040000</v>
+        <v>1060000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2664,19 +2664,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D85" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F85" s="18">
-        <v>41600</v>
+        <v>33333</v>
       </c>
       <c r="G85" s="18">
-        <v>1040000</v>
+        <v>1000000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2687,16 +2687,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D86" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E86" s="22" t="s">
-        <v>20</v>
-      </c>
       <c r="F86" s="24">
-        <v>31894</v>
+        <v>34667</v>
       </c>
       <c r="G86" s="24">
         <v>1040000</v>
